--- a/input_sample/sample3.xlsx
+++ b/input_sample/sample3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CBA669-F8CD-4E10-968D-15E03106C4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBEC73B-ECFA-4F0F-B9F4-4F83BC30F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="4455" windowWidth="23490" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="O23" sqref="O11:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -548,9 +548,7 @@
       <c r="T11" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="1">
-        <v>45686</v>
-      </c>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
@@ -566,9 +564,7 @@
       <c r="T12" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="1">
-        <v>45686</v>
-      </c>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
@@ -584,9 +580,7 @@
       <c r="T13" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="1">
-        <v>45686</v>
-      </c>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
@@ -632,9 +626,7 @@
       <c r="P18" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="1">
-        <v>45700</v>
-      </c>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="15:21">
       <c r="O19" t="s">
@@ -643,9 +635,7 @@
       <c r="P19" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="1">
-        <v>45700</v>
-      </c>
+      <c r="Q19" s="1"/>
       <c r="S19" t="s">
         <v>20</v>
       </c>
@@ -657,9 +647,7 @@
       <c r="P20" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="1">
-        <v>45700</v>
-      </c>
+      <c r="Q20" s="1"/>
       <c r="S20" t="s">
         <v>20</v>
       </c>
@@ -671,9 +659,7 @@
       <c r="P21" t="s">
         <v>9</v>
       </c>
-      <c r="Q21" s="1">
-        <v>45700</v>
-      </c>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="15:21">
       <c r="O22" t="s">
@@ -682,9 +668,7 @@
       <c r="P22" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="1">
-        <v>45700</v>
-      </c>
+      <c r="Q22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/input_sample/sample3.xlsx
+++ b/input_sample/sample3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBEC73B-ECFA-4F0F-B9F4-4F83BC30F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53632EF6-95BD-44B8-A4CD-CFEEC6905FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="4455" windowWidth="23490" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="945" windowWidth="23490" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -130,14 +130,6 @@
   </si>
   <si>
     <t>Cさん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -464,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A10:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O11:P23"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -476,14 +468,6 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>0</v>
@@ -564,7 +548,9 @@
       <c r="T12" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1">
+        <v>45719</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
@@ -580,7 +566,9 @@
       <c r="T13" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1">
+        <v>45719</v>
+      </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
@@ -626,7 +614,9 @@
       <c r="P18" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1">
+        <v>45721</v>
+      </c>
     </row>
     <row r="19" spans="15:21">
       <c r="O19" t="s">
@@ -635,7 +625,9 @@
       <c r="P19" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1">
+        <v>45721</v>
+      </c>
       <c r="S19" t="s">
         <v>20</v>
       </c>
@@ -647,7 +639,9 @@
       <c r="P20" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="1">
+        <v>45721</v>
+      </c>
       <c r="S20" t="s">
         <v>20</v>
       </c>

--- a/input_sample/sample3.xlsx
+++ b/input_sample/sample3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53632EF6-95BD-44B8-A4CD-CFEEC6905FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03125470-5978-4E22-B6D5-026ACEC04B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="945" windowWidth="23490" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14100" yWindow="5130" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -130,6 +130,20 @@
   </si>
   <si>
     <t>Cさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待結果</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -458,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21:U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -499,6 +513,9 @@
       <c r="J10" t="s">
         <v>18</v>
       </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
       <c r="O10" t="s">
         <v>3</v>
       </c>
@@ -522,6 +539,9 @@
       <c r="A11">
         <v>1</v>
       </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
       <c r="O11" t="s">
         <v>19</v>
       </c>
@@ -532,12 +552,17 @@
       <c r="T11" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="1"/>
+      <c r="U11" s="1">
+        <v>45719</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
         <v>2</v>
       </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
       <c r="O12" t="s">
         <v>19</v>
       </c>
@@ -556,6 +581,9 @@
       <c r="A13">
         <v>3</v>
       </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
       <c r="O13" t="s">
         <v>19</v>
       </c>
@@ -574,40 +602,87 @@
       <c r="A14">
         <v>4</v>
       </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
       <c r="O14" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="S14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="1">
+        <v>45719</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
         <v>5</v>
       </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
       <c r="O15" t="s">
         <v>19</v>
       </c>
       <c r="Q15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="S15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="1">
+        <v>45719</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
         <v>6</v>
       </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
       <c r="O16" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="1"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="15:21">
+      <c r="S16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="1">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="17" spans="11:21">
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
       <c r="O17" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="15:21">
+      <c r="S17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="1">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="18" spans="11:21">
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
       <c r="O18" t="s">
         <v>7</v>
       </c>
@@ -617,8 +692,20 @@
       <c r="Q18" s="1">
         <v>45721</v>
       </c>
-    </row>
-    <row r="19" spans="15:21">
+      <c r="S18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="1">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="19" spans="11:21">
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
       <c r="O19" t="s">
         <v>7</v>
       </c>
@@ -632,7 +719,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="15:21">
+    <row r="20" spans="11:21">
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
       <c r="O20" t="s">
         <v>7</v>
       </c>
@@ -646,23 +736,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="15:21">
+    <row r="21" spans="11:21">
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
       <c r="O21" t="s">
         <v>7</v>
       </c>
       <c r="P21" t="s">
         <v>9</v>
       </c>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="15:21">
+      <c r="Q21" s="1">
+        <v>45721</v>
+      </c>
+      <c r="S21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="1">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="22" spans="11:21">
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
       <c r="O22" t="s">
         <v>7</v>
       </c>
       <c r="P22" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1">
+        <v>45721</v>
+      </c>
+      <c r="S22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="1">
+        <v>45719</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
